--- a/biology/Botanique/Bruniaceae/Bruniaceae.xlsx
+++ b/biology/Botanique/Bruniaceae/Bruniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Bruniacées est une famille de plantes dicotylédones qui comprend 75 espèces réparties en 12 genres.
 Ce sont des arbustes, parfois des arbres, à petites feuilles persistantes (ressemblant aux bruyères) endémiques d'Afrique du Sud.
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Brunia, qui aurait été donné en hommage au graveur, peintre, écrivain-voyageur néerlandais Cornelis de Bruijn (1652-1727), lequel aurait réalisé plusieurs œuvres où cette plante est représentée[1],[2].
-Cependant, une autre version affirme que cet hommage s'adresse plutôt à Alexander Brown (1692-1698), chirurgien naval anglais et collecteur de plantes en Inde, au Cap, en Espagne et en Arabie[3],[4]. L'Hortum Cliffortianus de 1737 semble en effet dédier Brunia à un certain Alexander Brow[4],[note 1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Brunia, qui aurait été donné en hommage au graveur, peintre, écrivain-voyageur néerlandais Cornelis de Bruijn (1652-1727), lequel aurait réalisé plusieurs œuvres où cette plante est représentée,.
+Cependant, une autre version affirme que cet hommage s'adresse plutôt à Alexander Brown (1692-1698), chirurgien naval anglais et collecteur de plantes en Inde, au Cap, en Espagne et en Arabie,. L'Hortum Cliffortianus de 1737 semble en effet dédier Brunia à un certain Alexander Brow,[note 1].
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique situe la divergence de cette famille à la base des Campanulidées (Euasterids II).
-La classification phylogénétique APG III (2009)[5] place cette famille sous l'ordre Bruniales.
+La classification phylogénétique APG III (2009) place cette famille sous l'ordre Bruniales.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (12 Jul 2010)[6], NCBI  (12 Jul 2010)[7] et DELTA Angio           (12 Jul 2010)[8] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (12 Jul 2010), NCBI  (12 Jul 2010) et DELTA Angio           (12 Jul 2010) :
 Audouinia (en) Brongn.
 Berzelia (en) Brongn.
 Brunia (en) Lam.
@@ -618,9 +636,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon NCBI  (12 Jul 2010)[7] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon NCBI  (12 Jul 2010) :
 genre Audouinia
 Audouinia capitata
 genre Berzelia
